--- a/notestoALL/outputpnl_sheet.xlsx
+++ b/notestoALL/outputpnl_sheet.xlsx
@@ -614,12 +614,12 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>499.62</t>
+          <t>239.89</t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>828.04</t>
+          <t>403.89</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       <c r="B16" s="8" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>2,801.68</t>
+          <t>2,541.95</t>
         </is>
       </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
-          <t>3,406.54</t>
+          <t>2,982.39</t>
         </is>
       </c>
     </row>
@@ -752,12 +752,12 @@
       <c r="B17" s="8" t="inlineStr"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>626.68</t>
+          <t>886.41</t>
         </is>
       </c>
       <c r="D17" s="11" t="inlineStr">
         <is>
-          <t>959.16</t>
+          <t>1,383.31</t>
         </is>
       </c>
     </row>
@@ -830,12 +830,12 @@
       <c r="B24" s="8" t="inlineStr"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
-          <t>626.68</t>
+          <t>886.41</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t>959.16</t>
+          <t>1,383.31</t>
         </is>
       </c>
     </row>
